--- a/data-raw/July25_20C_rep2_combined_results.xlsx
+++ b/data-raw/July25_20C_rep2_combined_results.xlsx
@@ -4,6 +4,7 @@
   <workbookPr/>
   <sheets>
     <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet state="visible" name="Sheet2" sheetId="2" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr/>
@@ -11,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="9">
   <si>
     <t>Time</t>
   </si>
@@ -98,6 +99,10 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
@@ -569,4 +574,280 @@
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C1" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="D1" s="1">
+        <v>16.0</v>
+      </c>
+      <c r="E1" s="1">
+        <v>21.0</v>
+      </c>
+      <c r="F1" s="1">
+        <v>23.0</v>
+      </c>
+      <c r="G1" s="1">
+        <v>25.0</v>
+      </c>
+      <c r="H1" s="1">
+        <v>28.0</v>
+      </c>
+      <c r="I1" s="1">
+        <v>41.0</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4">
+        <v>0.07360000163316727</v>
+      </c>
+      <c r="C2" s="4">
+        <v>0.07249999791383743</v>
+      </c>
+      <c r="D2" s="4">
+        <v>0.24120000004768372</v>
+      </c>
+      <c r="E2" s="4">
+        <v>0.6812000274658203</v>
+      </c>
+      <c r="F2" s="4">
+        <v>0.8450999855995178</v>
+      </c>
+      <c r="G2" s="4">
+        <v>0.9483000040054321</v>
+      </c>
+      <c r="H2" s="4">
+        <v>1.061400055885315</v>
+      </c>
+      <c r="I2" s="4">
+        <v>1.1591999530792236</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4">
+        <v>0.066600002348423</v>
+      </c>
+      <c r="C3" s="4">
+        <v>0.06790000200271606</v>
+      </c>
+      <c r="D3" s="4">
+        <v>0.23260000348091125</v>
+      </c>
+      <c r="E3" s="4">
+        <v>0.6686000227928162</v>
+      </c>
+      <c r="F3" s="4">
+        <v>0.8299000263214111</v>
+      </c>
+      <c r="G3" s="4">
+        <v>0.9337999820709229</v>
+      </c>
+      <c r="H3" s="4">
+        <v>1.0462000370025635</v>
+      </c>
+      <c r="I3" s="4">
+        <v>1.1431000232696533</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="4">
+        <v>0.06790000200271606</v>
+      </c>
+      <c r="C4" s="4">
+        <v>0.06880000233650208</v>
+      </c>
+      <c r="D4" s="4">
+        <v>0.2295999974012375</v>
+      </c>
+      <c r="E4" s="4">
+        <v>0.6646999716758728</v>
+      </c>
+      <c r="F4" s="4">
+        <v>0.8281999826431274</v>
+      </c>
+      <c r="G4" s="4">
+        <v>0.9297000169754028</v>
+      </c>
+      <c r="H4" s="4">
+        <v>1.0433000326156616</v>
+      </c>
+      <c r="I4" s="4">
+        <v>1.139799952507019</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="4">
+        <v>0.06830000132322311</v>
+      </c>
+      <c r="C5" s="4">
+        <v>0.06930000334978104</v>
+      </c>
+      <c r="D5" s="4">
+        <v>0.20739999413490295</v>
+      </c>
+      <c r="E5" s="4">
+        <v>0.6093999743461609</v>
+      </c>
+      <c r="F5" s="4">
+        <v>0.7717999815940857</v>
+      </c>
+      <c r="G5" s="4">
+        <v>0.8755000233650208</v>
+      </c>
+      <c r="H5" s="4">
+        <v>0.9886000156402588</v>
+      </c>
+      <c r="I5" s="4">
+        <v>1.097000002861023</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="4">
+        <v>0.06840000301599503</v>
+      </c>
+      <c r="C6" s="4">
+        <v>0.06909999996423721</v>
+      </c>
+      <c r="D6" s="4">
+        <v>0.23360000550746918</v>
+      </c>
+      <c r="E6" s="4">
+        <v>0.6791999936103821</v>
+      </c>
+      <c r="F6" s="4">
+        <v>0.8406999707221985</v>
+      </c>
+      <c r="G6" s="4">
+        <v>0.9460999965667725</v>
+      </c>
+      <c r="H6" s="4">
+        <v>1.058899998664856</v>
+      </c>
+      <c r="I6" s="4">
+        <v>1.155500054359436</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="4">
+        <v>0.06669999659061432</v>
+      </c>
+      <c r="C7" s="4">
+        <v>0.06790000200271606</v>
+      </c>
+      <c r="D7" s="4">
+        <v>0.22910000383853912</v>
+      </c>
+      <c r="E7" s="4">
+        <v>0.6743000149726868</v>
+      </c>
+      <c r="F7" s="4">
+        <v>0.8366000056266785</v>
+      </c>
+      <c r="G7" s="4">
+        <v>0.9419000148773193</v>
+      </c>
+      <c r="H7" s="4">
+        <v>1.0556000471115112</v>
+      </c>
+      <c r="I7" s="4">
+        <v>1.1572999954223633</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="4">
+        <v>0.06840000301599503</v>
+      </c>
+      <c r="C8" s="4">
+        <v>0.06880000233650208</v>
+      </c>
+      <c r="D8" s="4">
+        <v>0.23260000348091125</v>
+      </c>
+      <c r="E8" s="4">
+        <v>0.6764000058174133</v>
+      </c>
+      <c r="F8" s="4">
+        <v>0.8307999968528748</v>
+      </c>
+      <c r="G8" s="4">
+        <v>0.9348999857902527</v>
+      </c>
+      <c r="H8" s="4">
+        <v>1.0465999841690063</v>
+      </c>
+      <c r="I8" s="4">
+        <v>1.1448999643325806</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="4">
+        <v>0.06849999725818634</v>
+      </c>
+      <c r="C9" s="4">
+        <v>0.06939999759197235</v>
+      </c>
+      <c r="D9" s="4">
+        <v>0.22949999570846558</v>
+      </c>
+      <c r="E9" s="4">
+        <v>0.6711999773979187</v>
+      </c>
+      <c r="F9" s="4">
+        <v>0.8270999789237976</v>
+      </c>
+      <c r="G9" s="4">
+        <v>0.9308000206947327</v>
+      </c>
+      <c r="H9" s="4">
+        <v>1.0427000522613525</v>
+      </c>
+      <c r="I9" s="4">
+        <v>1.1426000595092773</v>
+      </c>
+    </row>
+  </sheetData>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>